--- a/20110828_Danh sac& Phan cong.xlsx
+++ b/20110828_Danh sac& Phan cong.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7425" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Phan Cong lan 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Task cu" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
   <si>
     <t>Website cổng thông tin</t>
   </si>
@@ -226,6 +226,21 @@
   </si>
   <si>
     <t>D chia thời gian như vậy thôi, nếu thấy làm không kịp thì cứ nói ha, có gì D sửa lại</t>
+  </si>
+  <si>
+    <t>anh Luyện</t>
+  </si>
+  <si>
+    <t>luyenlengoc@gmail.com</t>
+  </si>
+  <si>
+    <t>http://tranphuwesite.googlecode.com/svn/trunk/</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Trunk for checkout</t>
   </si>
 </sst>
 </file>
@@ -492,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -511,6 +526,18 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,74 +559,80 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,22 +949,30 @@
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>38</v>
       </c>
@@ -950,9 +991,17 @@
       <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="H3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="2">
@@ -968,9 +1017,17 @@
         <v>12</v>
       </c>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="H4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -985,8 +1042,8 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1001,16 +1058,16 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="2">
@@ -1029,8 +1086,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1047,8 +1104,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -1065,8 +1122,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -1083,8 +1140,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -1101,8 +1158,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -1119,8 +1176,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -1137,25 +1194,47 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:A14"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1171,40 +1250,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1213,203 +1292,213 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="34">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="18" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="34">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="36"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="32"/>
       <c r="I11" s="33"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="G15" s="39" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C8:D11"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:D6"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A14:A19"/>
@@ -1426,30 +1515,8 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:D11"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>